--- a/dynamika/Macierze_pseudoinecji.xlsx
+++ b/dynamika/Macierze_pseudoinecji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliwa\Desktop\SR\proj\etap1\dynamika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D189302F-80F0-4E3D-9179-56F9719A4A78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E900A-7143-4C9F-9D03-097269E9F961}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{6865D327-405C-48E4-8A16-31C0B98FD2DA}"/>
+    <workbookView xWindow="5250" yWindow="8160" windowWidth="21600" windowHeight="11385" xr2:uid="{6865D327-405C-48E4-8A16-31C0B98FD2DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ogniwo 1" sheetId="1" r:id="rId1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC35884A-99FC-4C9F-BC7D-98A85433D718}">
   <dimension ref="C3:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,15 +434,15 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>532.01900000000001</v>
+        <v>580.98099999999999</v>
       </c>
       <c r="E4">
         <f>D5</f>
-        <v>0.83</v>
+        <v>-258.64400000000001</v>
       </c>
       <c r="F4">
         <f>D6</f>
-        <v>40.378</v>
+        <v>-0.83</v>
       </c>
       <c r="G4">
         <f>J4*$G$7</f>
@@ -457,21 +457,21 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.83</v>
+        <v>-258.64400000000001</v>
       </c>
       <c r="E5">
-        <v>1038.337</v>
+        <v>131.166</v>
       </c>
       <c r="F5">
         <f>E6</f>
-        <v>0.23699999999999999</v>
+        <v>-3.2639999999999998</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G6" si="0">J5*$G$7</f>
-        <v>8.7120000000000003E-2</v>
+        <v>-5.2908240000000006</v>
       </c>
       <c r="J5">
-        <v>0.33</v>
+        <v>-20.041</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
@@ -479,20 +479,20 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>40.378</v>
+        <v>-0.83</v>
       </c>
       <c r="E6">
-        <v>0.23699999999999999</v>
+        <v>-3.2639999999999998</v>
       </c>
       <c r="F6">
-        <v>1313.1659999999999</v>
+        <v>1087.299</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>3.8802720000000002</v>
+        <v>8.7120000000000003E-2</v>
       </c>
       <c r="J6">
-        <v>14.698</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
       </c>
       <c r="F7">
         <f>G6</f>
-        <v>3.8802720000000002</v>
+        <v>8.7120000000000003E-2</v>
       </c>
       <c r="G7">
         <v>0.26400000000000001</v>
@@ -517,6 +517,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -525,7 +526,7 @@
   <dimension ref="C3:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D4" sqref="D4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>282.84699999999998</v>
+        <v>292.685</v>
       </c>
       <c r="E4">
         <f>D5</f>
@@ -583,14 +584,14 @@
       </c>
       <c r="F5">
         <f>E6</f>
-        <v>-2.1999999999999999E-2</v>
+        <v>-15.356999999999999</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G6" si="0">J5*$G$7</f>
-        <v>2.2177499999999997</v>
+        <v>-2.2822499999999999</v>
       </c>
       <c r="J5">
-        <v>73.924999999999997</v>
+        <v>-76.075000000000003</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
@@ -601,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-2.1999999999999999E-2</v>
+        <v>-15.356999999999999</v>
       </c>
       <c r="F6">
-        <v>273.61399999999998</v>
+        <v>283.452</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -624,7 +625,7 @@
       </c>
       <c r="E7">
         <f>G5</f>
-        <v>2.2177499999999997</v>
+        <v>-2.2822499999999999</v>
       </c>
       <c r="F7">
         <f>G6</f>
@@ -636,6 +637,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -643,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB2C618-A768-4379-9124-2CB9C6858C19}">
   <dimension ref="C3:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,22 +674,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>400.01100000000002</v>
+        <v>4.2910000000000004</v>
       </c>
       <c r="E4">
         <f>D5</f>
-        <v>-0.65500000000000003</v>
+        <v>-0.01</v>
       </c>
       <c r="F4">
         <f>D6</f>
-        <v>1.7000000000000001E-2</v>
+        <v>8.7129999999999992</v>
       </c>
       <c r="G4">
         <f>J4*$G$7</f>
-        <v>-1.3223999999999998E-2</v>
+        <v>-3.8528959999999999</v>
       </c>
       <c r="J4">
-        <v>-0.34799999999999998</v>
+        <v>-101.392</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -695,21 +697,21 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>-0.65500000000000003</v>
+        <v>-0.01</v>
       </c>
       <c r="E5">
-        <v>4.2960000000000003</v>
+        <v>622.52499999999998</v>
       </c>
       <c r="F5">
         <f>E6</f>
-        <v>-1.6759999999999999</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G6" si="0">J5*$G$7</f>
-        <v>-2.5277220000000002</v>
+        <v>-3.8000000000000002E-4</v>
       </c>
       <c r="J5">
-        <v>-66.519000000000005</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
@@ -717,13 +719,13 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1.7000000000000001E-2</v>
+        <v>8.7129999999999992</v>
       </c>
       <c r="E6">
-        <v>-1.6759999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>396.75200000000001</v>
+        <v>619.26199999999994</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -739,11 +741,11 @@
       </c>
       <c r="D7">
         <f>G4</f>
-        <v>-1.3223999999999998E-2</v>
+        <v>-3.8528959999999999</v>
       </c>
       <c r="E7">
         <f>G5</f>
-        <v>-2.5277220000000002</v>
+        <v>-3.8000000000000002E-4</v>
       </c>
       <c r="F7">
         <f>G6</f>
@@ -755,5 +757,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>